--- a/in/MRFC-FIXTURES-2024-25.xlsx
+++ b/in/MRFC-FIXTURES-2024-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickgreen/workspace/code/morleyrfc/fixture-processing/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2BE5D8-7317-6547-ADC5-F3534CFFB6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E27E1-AF6F-B840-8B83-C055B5958623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="10000" windowHeight="16440" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Hallam</t>
   </si>
   <si>
     <t>Heath</t>
@@ -1717,7 +1714,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1740,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -1855,7 +1852,7 @@
         <v>45526</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>32</v>
@@ -1869,7 +1866,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
       <c r="L6" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
@@ -1949,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>31</v>
@@ -2039,7 +2036,7 @@
         <v>45584</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>27</v>
@@ -2138,13 +2135,13 @@
         <v>45612</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>32</v>
@@ -2358,7 +2355,7 @@
         <v>45675</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>29</v>
@@ -2509,13 +2506,13 @@
         <v>45717</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="61" t="s">
         <v>31</v>
@@ -2791,7 +2788,7 @@
     </row>
     <row r="46" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="18"/>
     </row>
@@ -3455,47 +3452,47 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
